--- a/scores.xlsx
+++ b/scores.xlsx
@@ -494,9 +494,10 @@
         <f>sum(B2:G2)</f>
         <v/>
       </c>
-      <c r="I2">
-        <f>sum(B2:G2)</f>
-        <v/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -522,12 +523,13 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I3">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B3:G3)</f>
+        <v/>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -553,12 +555,13 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I4">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B4:G4)</f>
+        <v/>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -584,12 +587,13 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I5">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B5:G5)</f>
+        <v/>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -615,12 +619,13 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I6">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B6:G6)</f>
+        <v/>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -646,12 +651,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I7">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B7:G7)</f>
+        <v/>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -677,12 +683,13 @@
         <v>18</v>
       </c>
       <c r="H8">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I8">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B8:G8)</f>
+        <v/>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -708,12 +715,13 @@
         <v>17</v>
       </c>
       <c r="H9">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I9">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B9:G9)</f>
+        <v/>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -739,12 +747,13 @@
         <v>19</v>
       </c>
       <c r="H10">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I10">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B10:G10)</f>
+        <v/>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -770,12 +779,13 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
-      <c r="I11">
-        <f>sum(B2:G2)</f>
-        <v/>
+        <f>sum(B11:G11)</f>
+        <v/>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
